--- a/Code/Results/Cases/Case_2_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004411706832589</v>
+        <v>1.027278619896107</v>
       </c>
       <c r="D2">
-        <v>1.021238172123837</v>
+        <v>1.032755763016446</v>
       </c>
       <c r="E2">
-        <v>1.018085224990913</v>
+        <v>1.051046160158886</v>
       </c>
       <c r="F2">
-        <v>1.024573372255831</v>
+        <v>1.056080361991812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04353138781384</v>
+        <v>1.035352699529619</v>
       </c>
       <c r="J2">
-        <v>1.026461260464406</v>
+        <v>1.032437380866821</v>
       </c>
       <c r="K2">
-        <v>1.032409347064829</v>
+        <v>1.035560077793327</v>
       </c>
       <c r="L2">
-        <v>1.02929822497252</v>
+        <v>1.053798749314762</v>
       </c>
       <c r="M2">
-        <v>1.035700655637806</v>
+        <v>1.058819055084351</v>
       </c>
       <c r="N2">
-        <v>1.012786251239959</v>
+        <v>1.014845711269824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007930975854289</v>
+        <v>1.028019124234036</v>
       </c>
       <c r="D3">
-        <v>1.023761070870536</v>
+        <v>1.033307649016017</v>
       </c>
       <c r="E3">
-        <v>1.022419947355241</v>
+        <v>1.052059733081065</v>
       </c>
       <c r="F3">
-        <v>1.028963884178119</v>
+        <v>1.057098913616316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044467907143092</v>
+        <v>1.035506303731186</v>
       </c>
       <c r="J3">
-        <v>1.028207744904641</v>
+        <v>1.032819076604272</v>
       </c>
       <c r="K3">
-        <v>1.034098689858518</v>
+        <v>1.035921489365779</v>
       </c>
       <c r="L3">
-        <v>1.032773777549906</v>
+        <v>1.054624372853338</v>
       </c>
       <c r="M3">
-        <v>1.039239108625595</v>
+        <v>1.059650652848738</v>
       </c>
       <c r="N3">
-        <v>1.013368212315511</v>
+        <v>1.014972518812272</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010166998364693</v>
+        <v>1.028498789268428</v>
       </c>
       <c r="D4">
-        <v>1.025366489680428</v>
+        <v>1.033665159554896</v>
       </c>
       <c r="E4">
-        <v>1.025179173634177</v>
+        <v>1.052716905036241</v>
       </c>
       <c r="F4">
-        <v>1.031757377820212</v>
+        <v>1.057759166328671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045054579411357</v>
+        <v>1.035604773254044</v>
       </c>
       <c r="J4">
-        <v>1.029314158994661</v>
+        <v>1.03306587613926</v>
       </c>
       <c r="K4">
-        <v>1.035168107590058</v>
+        <v>1.036155043200257</v>
       </c>
       <c r="L4">
-        <v>1.034982916890464</v>
+        <v>1.055159316716236</v>
       </c>
       <c r="M4">
-        <v>1.041487051818088</v>
+        <v>1.060189321729036</v>
       </c>
       <c r="N4">
-        <v>1.013736861761059</v>
+        <v>1.01505449409862</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011097446456277</v>
+        <v>1.028700560604521</v>
       </c>
       <c r="D5">
-        <v>1.02603508748878</v>
+        <v>1.033815551807648</v>
       </c>
       <c r="E5">
-        <v>1.026328610553412</v>
+        <v>1.052993495480349</v>
       </c>
       <c r="F5">
-        <v>1.032920786022475</v>
+        <v>1.058037018122124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045296672430824</v>
+        <v>1.035645948291513</v>
       </c>
       <c r="J5">
-        <v>1.029773760417615</v>
+        <v>1.0331695856929</v>
       </c>
       <c r="K5">
-        <v>1.03561214168325</v>
+        <v>1.036253155361807</v>
       </c>
       <c r="L5">
-        <v>1.035902424449662</v>
+        <v>1.055384376030869</v>
       </c>
       <c r="M5">
-        <v>1.042422422036423</v>
+        <v>1.060415913249575</v>
       </c>
       <c r="N5">
-        <v>1.013889989607634</v>
+        <v>1.015088937511054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011253119261036</v>
+        <v>1.028734445894792</v>
       </c>
       <c r="D6">
-        <v>1.026146981890833</v>
+        <v>1.033840808838081</v>
       </c>
       <c r="E6">
-        <v>1.026520998688336</v>
+        <v>1.053039954689152</v>
       </c>
       <c r="F6">
-        <v>1.033115494616417</v>
+        <v>1.05808368713219</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045337056735499</v>
+        <v>1.035652848750483</v>
       </c>
       <c r="J6">
-        <v>1.029850608717243</v>
+        <v>1.033186996313354</v>
       </c>
       <c r="K6">
-        <v>1.035686375085788</v>
+        <v>1.036269624459229</v>
       </c>
       <c r="L6">
-        <v>1.03605628216457</v>
+        <v>1.055422174353054</v>
       </c>
       <c r="M6">
-        <v>1.042578916848758</v>
+        <v>1.060453966851245</v>
       </c>
       <c r="N6">
-        <v>1.013915593045972</v>
+        <v>1.015094719585789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010179468317052</v>
+        <v>1.02850148487696</v>
       </c>
       <c r="D7">
-        <v>1.025375448144242</v>
+        <v>1.033667168733158</v>
       </c>
       <c r="E7">
-        <v>1.02519457339446</v>
+        <v>1.052720599613728</v>
       </c>
       <c r="F7">
-        <v>1.031772965968448</v>
+        <v>1.057762877893301</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045057832019917</v>
+        <v>1.035605324308273</v>
       </c>
       <c r="J7">
-        <v>1.029320321787019</v>
+        <v>1.033067262089513</v>
       </c>
       <c r="K7">
-        <v>1.03517406243759</v>
+        <v>1.036156354471507</v>
       </c>
       <c r="L7">
-        <v>1.034995239204241</v>
+        <v>1.055162323307482</v>
       </c>
       <c r="M7">
-        <v>1.041499587854757</v>
+        <v>1.060192348926603</v>
       </c>
       <c r="N7">
-        <v>1.013738915085247</v>
+        <v>1.015054954408338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005609760898345</v>
+        <v>1.027528770315698</v>
       </c>
       <c r="D8">
-        <v>1.022096499597479</v>
+        <v>1.032942190896851</v>
       </c>
       <c r="E8">
-        <v>1.019559847762716</v>
+        <v>1.051388427285022</v>
       </c>
       <c r="F8">
-        <v>1.026067231150039</v>
+        <v>1.056424340789918</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043851938748354</v>
+        <v>1.03540480143475</v>
       </c>
       <c r="J8">
-        <v>1.027056478009903</v>
+        <v>1.032566413968019</v>
       </c>
       <c r="K8">
-        <v>1.032985252423768</v>
+        <v>1.035682280681658</v>
       </c>
       <c r="L8">
-        <v>1.030481229651611</v>
+        <v>1.054077624926357</v>
       </c>
       <c r="M8">
-        <v>1.036905312813478</v>
+        <v>1.059099978783919</v>
       </c>
       <c r="N8">
-        <v>1.012984593901758</v>
+        <v>1.014888582313116</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9972286534105319</v>
+        <v>1.025818700383321</v>
       </c>
       <c r="D9">
-        <v>1.016103800063371</v>
+        <v>1.031667854170087</v>
       </c>
       <c r="E9">
-        <v>1.00926325664482</v>
+        <v>1.049051153833186</v>
       </c>
       <c r="F9">
-        <v>1.015631296632004</v>
+        <v>1.054074777626129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041575224731765</v>
+        <v>1.035044417294823</v>
       </c>
       <c r="J9">
-        <v>1.022879656066138</v>
+        <v>1.031682502941437</v>
       </c>
       <c r="K9">
-        <v>1.028940897816722</v>
+        <v>1.034844629030432</v>
       </c>
       <c r="L9">
-        <v>1.022207810731219</v>
+        <v>1.052171736700644</v>
       </c>
       <c r="M9">
-        <v>1.028475757324991</v>
+        <v>1.057179498987826</v>
       </c>
       <c r="N9">
-        <v>1.011592698051657</v>
+        <v>1.014594836341686</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9914006787980202</v>
+        <v>1.024681432385508</v>
       </c>
       <c r="D10">
-        <v>1.011953279375176</v>
+        <v>1.030820530049268</v>
       </c>
       <c r="E10">
-        <v>1.00212519964271</v>
+        <v>1.047499893311798</v>
       </c>
       <c r="F10">
-        <v>1.008390518198374</v>
+        <v>1.05251460740559</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039949730201584</v>
+        <v>1.03479946931918</v>
       </c>
       <c r="J10">
-        <v>1.019959682898638</v>
+        <v>1.031092386807783</v>
       </c>
       <c r="K10">
-        <v>1.026110016241769</v>
+        <v>1.034284736906163</v>
       </c>
       <c r="L10">
-        <v>1.016456188678116</v>
+        <v>1.050904901093892</v>
       </c>
       <c r="M10">
-        <v>1.022609913958028</v>
+        <v>1.055902220654183</v>
       </c>
       <c r="N10">
-        <v>1.010619614224651</v>
+        <v>1.014398641705447</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9888153813944672</v>
+        <v>1.024189663873604</v>
       </c>
       <c r="D11">
-        <v>1.010116592761093</v>
+        <v>1.030454181272207</v>
       </c>
       <c r="E11">
-        <v>0.9989630696788969</v>
+        <v>1.046829837602976</v>
       </c>
       <c r="F11">
-        <v>1.005181515434366</v>
+        <v>1.051840524942408</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039218982650412</v>
+        <v>1.034692299623551</v>
       </c>
       <c r="J11">
-        <v>1.018660971239154</v>
+        <v>1.030836674473837</v>
       </c>
       <c r="K11">
-        <v>1.02485021391853</v>
+        <v>1.034041966598046</v>
       </c>
       <c r="L11">
-        <v>1.013904567516196</v>
+        <v>1.050357252052732</v>
       </c>
       <c r="M11">
-        <v>1.020006373063428</v>
+        <v>1.055349881562941</v>
       </c>
       <c r="N11">
-        <v>1.010186830711678</v>
+        <v>1.014313605995539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9878453872255003</v>
+        <v>1.024007102496063</v>
       </c>
       <c r="D12">
-        <v>1.009428197181803</v>
+        <v>1.030318187176243</v>
       </c>
       <c r="E12">
-        <v>0.9977772210626528</v>
+        <v>1.046581198246616</v>
       </c>
       <c r="F12">
-        <v>1.00397789092628</v>
+        <v>1.051590364606902</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038943386471623</v>
+        <v>1.034652326580105</v>
       </c>
       <c r="J12">
-        <v>1.018173211241285</v>
+        <v>1.030741664400942</v>
       </c>
       <c r="K12">
-        <v>1.024376969828771</v>
+        <v>1.033951742017045</v>
       </c>
       <c r="L12">
-        <v>1.012947130268454</v>
+        <v>1.050153966984972</v>
       </c>
       <c r="M12">
-        <v>1.019029275585041</v>
+        <v>1.05514482922883</v>
       </c>
       <c r="N12">
-        <v>1.010024292872954</v>
+        <v>1.014282008013886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9880539002578976</v>
+        <v>1.024046257826204</v>
       </c>
       <c r="D13">
-        <v>1.009576143445116</v>
+        <v>1.030347354534632</v>
       </c>
       <c r="E13">
-        <v>0.9980321103511285</v>
+        <v>1.046634520937473</v>
       </c>
       <c r="F13">
-        <v>1.004236609824675</v>
+        <v>1.051644014694619</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039002693272088</v>
+        <v>1.03466090840985</v>
       </c>
       <c r="J13">
-        <v>1.01827808335295</v>
+        <v>1.030762045593306</v>
       </c>
       <c r="K13">
-        <v>1.024478725142917</v>
+        <v>1.033971097688594</v>
       </c>
       <c r="L13">
-        <v>1.013152948384036</v>
+        <v>1.0501975661426</v>
       </c>
       <c r="M13">
-        <v>1.019239327938346</v>
+        <v>1.055188808608463</v>
       </c>
       <c r="N13">
-        <v>1.010059239555875</v>
+        <v>1.014288786421659</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9887354017749745</v>
+        <v>1.024174571174724</v>
       </c>
       <c r="D14">
-        <v>1.010059817014429</v>
+        <v>1.030442938230769</v>
       </c>
       <c r="E14">
-        <v>0.9988652809130056</v>
+        <v>1.046809279906157</v>
       </c>
       <c r="F14">
-        <v>1.005082264791852</v>
+        <v>1.051819842035784</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03919628746522</v>
+        <v>1.034688998810562</v>
       </c>
       <c r="J14">
-        <v>1.018620763404246</v>
+        <v>1.030828821458345</v>
       </c>
       <c r="K14">
-        <v>1.024811204602632</v>
+        <v>1.034034509596226</v>
       </c>
       <c r="L14">
-        <v>1.013825625147358</v>
+        <v>1.050340445661487</v>
       </c>
       <c r="M14">
-        <v>1.019925813252797</v>
+        <v>1.055332929601796</v>
       </c>
       <c r="N14">
-        <v>1.010173432042191</v>
+        <v>1.014310994337589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9891539989959447</v>
+        <v>1.024253643010843</v>
       </c>
       <c r="D15">
-        <v>1.010356999598971</v>
+        <v>1.030501841705185</v>
       </c>
       <c r="E15">
-        <v>0.999377110433925</v>
+        <v>1.046916987728469</v>
       </c>
       <c r="F15">
-        <v>1.005601737796608</v>
+        <v>1.051928204772895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039315011666387</v>
+        <v>1.034706284329949</v>
       </c>
       <c r="J15">
-        <v>1.018831183348267</v>
+        <v>1.030869960712293</v>
       </c>
       <c r="K15">
-        <v>1.025015348420375</v>
+        <v>1.034073573324247</v>
       </c>
       <c r="L15">
-        <v>1.014238790114168</v>
+        <v>1.050428496525132</v>
       </c>
       <c r="M15">
-        <v>1.020347436284043</v>
+        <v>1.055421742046433</v>
       </c>
       <c r="N15">
-        <v>1.01024355155016</v>
+        <v>1.014324675798518</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9915709200055699</v>
+        <v>1.024714083837009</v>
       </c>
       <c r="D16">
-        <v>1.012074322458064</v>
+        <v>1.030844855113611</v>
       </c>
       <c r="E16">
-        <v>1.002333508795005</v>
+        <v>1.047544397577384</v>
       </c>
       <c r="F16">
-        <v>1.008601887236414</v>
+        <v>1.052559375365495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039997650478672</v>
+        <v>1.034806558581212</v>
       </c>
       <c r="J16">
-        <v>1.020045133645137</v>
+        <v>1.031109353726482</v>
       </c>
       <c r="K16">
-        <v>1.026192892821312</v>
+        <v>1.034300841851582</v>
       </c>
       <c r="L16">
-        <v>1.016624204177535</v>
+        <v>1.050941265793368</v>
       </c>
       <c r="M16">
-        <v>1.022781322908477</v>
+        <v>1.055938893080693</v>
       </c>
       <c r="N16">
-        <v>1.010648090301234</v>
+        <v>1.014404283549702</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.993070168530958</v>
+        <v>1.025003088450811</v>
       </c>
       <c r="D17">
-        <v>1.013140819974927</v>
+        <v>1.031060166389875</v>
       </c>
       <c r="E17">
-        <v>1.004168490833623</v>
+        <v>1.047938397902904</v>
       </c>
       <c r="F17">
-        <v>1.010463668403293</v>
+        <v>1.052955689582777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040418565972022</v>
+        <v>1.034869162431792</v>
       </c>
       <c r="J17">
-        <v>1.020797279552004</v>
+        <v>1.031259469071463</v>
       </c>
       <c r="K17">
-        <v>1.026922300347214</v>
+        <v>1.034443313000886</v>
       </c>
       <c r="L17">
-        <v>1.018103823948448</v>
+        <v>1.051263153896624</v>
       </c>
       <c r="M17">
-        <v>1.02429068572569</v>
+        <v>1.056263484773741</v>
       </c>
       <c r="N17">
-        <v>1.010898741260389</v>
+        <v>1.014454197686028</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9939387270666357</v>
+        <v>1.025171725060934</v>
       </c>
       <c r="D18">
-        <v>1.013759096964693</v>
+        <v>1.031185806583639</v>
       </c>
       <c r="E18">
-        <v>1.005231966019485</v>
+        <v>1.048168370777619</v>
       </c>
       <c r="F18">
-        <v>1.011542544496665</v>
+        <v>1.053186995818593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040661492300454</v>
+        <v>1.034905571479529</v>
       </c>
       <c r="J18">
-        <v>1.02123269400453</v>
+        <v>1.031347010581795</v>
       </c>
       <c r="K18">
-        <v>1.027344482983277</v>
+        <v>1.034526381770617</v>
       </c>
       <c r="L18">
-        <v>1.018960995929349</v>
+        <v>1.051450992461846</v>
       </c>
       <c r="M18">
-        <v>1.025164969216246</v>
+        <v>1.056452884053198</v>
       </c>
       <c r="N18">
-        <v>1.011043843327757</v>
+        <v>1.014483303804867</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9942338900764819</v>
+        <v>1.025229236776497</v>
       </c>
       <c r="D19">
-        <v>1.013969277051457</v>
+        <v>1.031228655538705</v>
       </c>
       <c r="E19">
-        <v>1.005593440629032</v>
+        <v>1.048246812542461</v>
       </c>
       <c r="F19">
-        <v>1.011909231475711</v>
+        <v>1.053265889458638</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040743888789564</v>
+        <v>1.034917967902499</v>
       </c>
       <c r="J19">
-        <v>1.021380605332095</v>
+        <v>1.031376856847571</v>
       </c>
       <c r="K19">
-        <v>1.027487887485999</v>
+        <v>1.034554700569244</v>
       </c>
       <c r="L19">
-        <v>1.019252288306712</v>
+        <v>1.051515055228002</v>
       </c>
       <c r="M19">
-        <v>1.025462056112717</v>
+        <v>1.056517476223994</v>
       </c>
       <c r="N19">
-        <v>1.011093134995665</v>
+        <v>1.014493226877953</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9929099294689614</v>
+        <v>1.02497207424357</v>
       </c>
       <c r="D20">
-        <v>1.013026788876266</v>
+        <v>1.031037060056498</v>
       </c>
       <c r="E20">
-        <v>1.003972326073627</v>
+        <v>1.047896108926192</v>
       </c>
       <c r="F20">
-        <v>1.010264652239372</v>
+        <v>1.052913154031925</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040373674128383</v>
+        <v>1.034862456664819</v>
       </c>
       <c r="J20">
-        <v>1.020716924115053</v>
+        <v>1.031243364993069</v>
       </c>
       <c r="K20">
-        <v>1.026844381213098</v>
+        <v>1.034428030521112</v>
       </c>
       <c r="L20">
-        <v>1.017945684700949</v>
+        <v>1.051228609375845</v>
       </c>
       <c r="M20">
-        <v>1.024129379892606</v>
+        <v>1.056228651862765</v>
       </c>
       <c r="N20">
-        <v>1.010871962856602</v>
+        <v>1.014448843191196</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9885349878412545</v>
+        <v>1.024136783224643</v>
       </c>
       <c r="D21">
-        <v>1.009917559446412</v>
+        <v>1.030414788877215</v>
       </c>
       <c r="E21">
-        <v>0.9986202495250189</v>
+        <v>1.046757810857508</v>
       </c>
       <c r="F21">
-        <v>1.004833567186462</v>
+        <v>1.051768059074684</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03913939477148</v>
+        <v>1.034680731449536</v>
       </c>
       <c r="J21">
-        <v>1.018520002323057</v>
+        <v>1.030809158370095</v>
       </c>
       <c r="K21">
-        <v>1.024713445483912</v>
+        <v>1.034015837709612</v>
       </c>
       <c r="L21">
-        <v>1.013627808935164</v>
+        <v>1.050298367436644</v>
       </c>
       <c r="M21">
-        <v>1.019723941158848</v>
+        <v>1.05529048648769</v>
       </c>
       <c r="N21">
-        <v>1.010139854957956</v>
+        <v>1.014304454985999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9857279418593708</v>
+        <v>1.023612201403835</v>
       </c>
       <c r="D22">
-        <v>1.007926848259008</v>
+        <v>1.030024030049979</v>
       </c>
       <c r="E22">
-        <v>0.9951895360488581</v>
+        <v>1.046043559903747</v>
       </c>
       <c r="F22">
-        <v>1.001351061785566</v>
+        <v>1.051049388529436</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038339196435117</v>
+        <v>1.03456551669692</v>
       </c>
       <c r="J22">
-        <v>1.017107587095993</v>
+        <v>1.030535999051859</v>
       </c>
       <c r="K22">
-        <v>1.023342891495958</v>
+        <v>1.033756393521747</v>
       </c>
       <c r="L22">
-        <v>1.010856895322622</v>
+        <v>1.049714275788716</v>
       </c>
       <c r="M22">
-        <v>1.016895801307785</v>
+        <v>1.05470126747242</v>
       </c>
       <c r="N22">
-        <v>1.009669199927782</v>
+        <v>1.014213603552592</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.987221498781959</v>
+        <v>1.023890234799997</v>
       </c>
       <c r="D23">
-        <v>1.00898563922419</v>
+        <v>1.030231131864711</v>
       </c>
       <c r="E23">
-        <v>0.9970146483919102</v>
+        <v>1.046422060731963</v>
       </c>
       <c r="F23">
-        <v>1.003203832524728</v>
+        <v>1.051430246084831</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03876572958802</v>
+        <v>1.03462668469989</v>
       </c>
       <c r="J23">
-        <v>1.017859355441332</v>
+        <v>1.030680820416858</v>
       </c>
       <c r="K23">
-        <v>1.024072428346765</v>
+        <v>1.033893956144527</v>
       </c>
       <c r="L23">
-        <v>1.01233128982548</v>
+        <v>1.050023838729352</v>
       </c>
       <c r="M23">
-        <v>1.018400740170683</v>
+        <v>1.055013562291143</v>
       </c>
       <c r="N23">
-        <v>1.009919706912433</v>
+        <v>1.014261772005528</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9929823528919163</v>
+        <v>1.024986088027883</v>
       </c>
       <c r="D24">
-        <v>1.013078326326118</v>
+        <v>1.031047500651141</v>
       </c>
       <c r="E24">
-        <v>1.004060985576935</v>
+        <v>1.047915217002825</v>
       </c>
       <c r="F24">
-        <v>1.010354600881511</v>
+        <v>1.052932373575153</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040393966804564</v>
+        <v>1.034865487042094</v>
       </c>
       <c r="J24">
-        <v>1.020753243460339</v>
+        <v>1.031250641789378</v>
       </c>
       <c r="K24">
-        <v>1.026879599602893</v>
+        <v>1.034434936115669</v>
       </c>
       <c r="L24">
-        <v>1.018017159111379</v>
+        <v>1.051244218290105</v>
       </c>
       <c r="M24">
-        <v>1.024202285879128</v>
+        <v>1.056244391138347</v>
       </c>
       <c r="N24">
-        <v>1.010884066254331</v>
+        <v>1.014451262681552</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9994362729960122</v>
+        <v>1.026260312349475</v>
       </c>
       <c r="D25">
-        <v>1.017679604034895</v>
+        <v>1.031996914691159</v>
       </c>
       <c r="E25">
-        <v>1.011971364775881</v>
+        <v>1.049654180503201</v>
       </c>
       <c r="F25">
-        <v>1.018377139895974</v>
+        <v>1.05468110819317</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042182357077337</v>
+        <v>1.035138415110817</v>
       </c>
       <c r="J25">
-        <v>1.023982623708324</v>
+        <v>1.031911168485585</v>
       </c>
       <c r="K25">
-        <v>1.030009529104599</v>
+        <v>1.035061444153627</v>
       </c>
       <c r="L25">
-        <v>1.024386640312251</v>
+        <v>1.052663797236854</v>
       </c>
       <c r="M25">
-        <v>1.030696718684565</v>
+        <v>1.057675458287376</v>
       </c>
       <c r="N25">
-        <v>1.011960264392628</v>
+        <v>1.014670842628012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027278619896107</v>
+        <v>1.004411706832589</v>
       </c>
       <c r="D2">
-        <v>1.032755763016446</v>
+        <v>1.021238172123836</v>
       </c>
       <c r="E2">
-        <v>1.051046160158886</v>
+        <v>1.018085224990913</v>
       </c>
       <c r="F2">
-        <v>1.056080361991812</v>
+        <v>1.024573372255831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035352699529619</v>
+        <v>1.043531387813839</v>
       </c>
       <c r="J2">
-        <v>1.032437380866821</v>
+        <v>1.026461260464406</v>
       </c>
       <c r="K2">
-        <v>1.035560077793327</v>
+        <v>1.032409347064829</v>
       </c>
       <c r="L2">
-        <v>1.053798749314762</v>
+        <v>1.029298224972521</v>
       </c>
       <c r="M2">
-        <v>1.058819055084351</v>
+        <v>1.035700655637807</v>
       </c>
       <c r="N2">
-        <v>1.014845711269824</v>
+        <v>1.012786251239959</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028019124234036</v>
+        <v>1.007930975854289</v>
       </c>
       <c r="D3">
-        <v>1.033307649016017</v>
+        <v>1.023761070870536</v>
       </c>
       <c r="E3">
-        <v>1.052059733081065</v>
+        <v>1.02241994735524</v>
       </c>
       <c r="F3">
-        <v>1.057098913616316</v>
+        <v>1.028963884178117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035506303731186</v>
+        <v>1.044467907143092</v>
       </c>
       <c r="J3">
-        <v>1.032819076604272</v>
+        <v>1.028207744904641</v>
       </c>
       <c r="K3">
-        <v>1.035921489365779</v>
+        <v>1.034098689858519</v>
       </c>
       <c r="L3">
-        <v>1.054624372853338</v>
+        <v>1.032773777549905</v>
       </c>
       <c r="M3">
-        <v>1.059650652848738</v>
+        <v>1.039239108625593</v>
       </c>
       <c r="N3">
-        <v>1.014972518812272</v>
+        <v>1.013368212315511</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028498789268428</v>
+        <v>1.010166998364694</v>
       </c>
       <c r="D4">
-        <v>1.033665159554896</v>
+        <v>1.025366489680429</v>
       </c>
       <c r="E4">
-        <v>1.052716905036241</v>
+        <v>1.025179173634177</v>
       </c>
       <c r="F4">
-        <v>1.057759166328671</v>
+        <v>1.031757377820212</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035604773254044</v>
+        <v>1.045054579411357</v>
       </c>
       <c r="J4">
-        <v>1.03306587613926</v>
+        <v>1.029314158994662</v>
       </c>
       <c r="K4">
-        <v>1.036155043200257</v>
+        <v>1.035168107590059</v>
       </c>
       <c r="L4">
-        <v>1.055159316716236</v>
+        <v>1.034982916890464</v>
       </c>
       <c r="M4">
-        <v>1.060189321729036</v>
+        <v>1.041487051818089</v>
       </c>
       <c r="N4">
-        <v>1.01505449409862</v>
+        <v>1.013736861761059</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028700560604521</v>
+        <v>1.011097446456276</v>
       </c>
       <c r="D5">
-        <v>1.033815551807648</v>
+        <v>1.026035087488779</v>
       </c>
       <c r="E5">
-        <v>1.052993495480349</v>
+        <v>1.026328610553412</v>
       </c>
       <c r="F5">
-        <v>1.058037018122124</v>
+        <v>1.032920786022475</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035645948291513</v>
+        <v>1.045296672430824</v>
       </c>
       <c r="J5">
-        <v>1.0331695856929</v>
+        <v>1.029773760417615</v>
       </c>
       <c r="K5">
-        <v>1.036253155361807</v>
+        <v>1.03561214168325</v>
       </c>
       <c r="L5">
-        <v>1.055384376030869</v>
+        <v>1.035902424449661</v>
       </c>
       <c r="M5">
-        <v>1.060415913249575</v>
+        <v>1.042422422036423</v>
       </c>
       <c r="N5">
-        <v>1.015088937511054</v>
+        <v>1.013889989607634</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028734445894792</v>
+        <v>1.011253119261036</v>
       </c>
       <c r="D6">
-        <v>1.033840808838081</v>
+        <v>1.026146981890833</v>
       </c>
       <c r="E6">
-        <v>1.053039954689152</v>
+        <v>1.026520998688336</v>
       </c>
       <c r="F6">
-        <v>1.05808368713219</v>
+        <v>1.033115494616418</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035652848750483</v>
+        <v>1.0453370567355</v>
       </c>
       <c r="J6">
-        <v>1.033186996313354</v>
+        <v>1.029850608717243</v>
       </c>
       <c r="K6">
-        <v>1.036269624459229</v>
+        <v>1.035686375085789</v>
       </c>
       <c r="L6">
-        <v>1.055422174353054</v>
+        <v>1.03605628216457</v>
       </c>
       <c r="M6">
-        <v>1.060453966851245</v>
+        <v>1.042578916848758</v>
       </c>
       <c r="N6">
-        <v>1.015094719585789</v>
+        <v>1.013915593045973</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02850148487696</v>
+        <v>1.010179468317052</v>
       </c>
       <c r="D7">
-        <v>1.033667168733158</v>
+        <v>1.025375448144242</v>
       </c>
       <c r="E7">
-        <v>1.052720599613728</v>
+        <v>1.02519457339446</v>
       </c>
       <c r="F7">
-        <v>1.057762877893301</v>
+        <v>1.031772965968449</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035605324308273</v>
+        <v>1.045057832019917</v>
       </c>
       <c r="J7">
-        <v>1.033067262089513</v>
+        <v>1.029320321787019</v>
       </c>
       <c r="K7">
-        <v>1.036156354471507</v>
+        <v>1.03517406243759</v>
       </c>
       <c r="L7">
-        <v>1.055162323307482</v>
+        <v>1.034995239204241</v>
       </c>
       <c r="M7">
-        <v>1.060192348926603</v>
+        <v>1.041499587854758</v>
       </c>
       <c r="N7">
-        <v>1.015054954408338</v>
+        <v>1.013738915085247</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027528770315698</v>
+        <v>1.005609760898344</v>
       </c>
       <c r="D8">
-        <v>1.032942190896851</v>
+        <v>1.022096499597479</v>
       </c>
       <c r="E8">
-        <v>1.051388427285022</v>
+        <v>1.019559847762716</v>
       </c>
       <c r="F8">
-        <v>1.056424340789918</v>
+        <v>1.026067231150039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03540480143475</v>
+        <v>1.043851938748354</v>
       </c>
       <c r="J8">
-        <v>1.032566413968019</v>
+        <v>1.027056478009903</v>
       </c>
       <c r="K8">
-        <v>1.035682280681658</v>
+        <v>1.032985252423768</v>
       </c>
       <c r="L8">
-        <v>1.054077624926357</v>
+        <v>1.030481229651611</v>
       </c>
       <c r="M8">
-        <v>1.059099978783919</v>
+        <v>1.036905312813478</v>
       </c>
       <c r="N8">
-        <v>1.014888582313116</v>
+        <v>1.012984593901758</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025818700383321</v>
+        <v>0.9972286534105321</v>
       </c>
       <c r="D9">
-        <v>1.031667854170087</v>
+        <v>1.016103800063371</v>
       </c>
       <c r="E9">
-        <v>1.049051153833186</v>
+        <v>1.00926325664482</v>
       </c>
       <c r="F9">
-        <v>1.054074777626129</v>
+        <v>1.015631296632004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035044417294823</v>
+        <v>1.041575224731765</v>
       </c>
       <c r="J9">
-        <v>1.031682502941437</v>
+        <v>1.022879656066138</v>
       </c>
       <c r="K9">
-        <v>1.034844629030432</v>
+        <v>1.028940897816722</v>
       </c>
       <c r="L9">
-        <v>1.052171736700644</v>
+        <v>1.022207810731219</v>
       </c>
       <c r="M9">
-        <v>1.057179498987826</v>
+        <v>1.02847575732499</v>
       </c>
       <c r="N9">
-        <v>1.014594836341686</v>
+        <v>1.011592698051656</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024681432385508</v>
+        <v>0.9914006787980203</v>
       </c>
       <c r="D10">
-        <v>1.030820530049268</v>
+        <v>1.011953279375176</v>
       </c>
       <c r="E10">
-        <v>1.047499893311798</v>
+        <v>1.002125199642711</v>
       </c>
       <c r="F10">
-        <v>1.05251460740559</v>
+        <v>1.008390518198375</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03479946931918</v>
+        <v>1.039949730201584</v>
       </c>
       <c r="J10">
-        <v>1.031092386807783</v>
+        <v>1.019959682898638</v>
       </c>
       <c r="K10">
-        <v>1.034284736906163</v>
+        <v>1.026110016241769</v>
       </c>
       <c r="L10">
-        <v>1.050904901093892</v>
+        <v>1.016456188678116</v>
       </c>
       <c r="M10">
-        <v>1.055902220654183</v>
+        <v>1.022609913958029</v>
       </c>
       <c r="N10">
-        <v>1.014398641705447</v>
+        <v>1.010619614224651</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024189663873604</v>
+        <v>0.9888153813944682</v>
       </c>
       <c r="D11">
-        <v>1.030454181272207</v>
+        <v>1.010116592761093</v>
       </c>
       <c r="E11">
-        <v>1.046829837602976</v>
+        <v>0.9989630696788978</v>
       </c>
       <c r="F11">
-        <v>1.051840524942408</v>
+        <v>1.005181515434367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034692299623551</v>
+        <v>1.039218982650412</v>
       </c>
       <c r="J11">
-        <v>1.030836674473837</v>
+        <v>1.018660971239155</v>
       </c>
       <c r="K11">
-        <v>1.034041966598046</v>
+        <v>1.024850213918531</v>
       </c>
       <c r="L11">
-        <v>1.050357252052732</v>
+        <v>1.013904567516196</v>
       </c>
       <c r="M11">
-        <v>1.055349881562941</v>
+        <v>1.020006373063429</v>
       </c>
       <c r="N11">
-        <v>1.014313605995539</v>
+        <v>1.010186830711679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024007102496063</v>
+        <v>0.9878453872255004</v>
       </c>
       <c r="D12">
-        <v>1.030318187176243</v>
+        <v>1.009428197181803</v>
       </c>
       <c r="E12">
-        <v>1.046581198246616</v>
+        <v>0.9977772210626527</v>
       </c>
       <c r="F12">
-        <v>1.051590364606902</v>
+        <v>1.00397789092628</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034652326580105</v>
+        <v>1.038943386471623</v>
       </c>
       <c r="J12">
-        <v>1.030741664400942</v>
+        <v>1.018173211241285</v>
       </c>
       <c r="K12">
-        <v>1.033951742017045</v>
+        <v>1.024376969828772</v>
       </c>
       <c r="L12">
-        <v>1.050153966984972</v>
+        <v>1.012947130268454</v>
       </c>
       <c r="M12">
-        <v>1.05514482922883</v>
+        <v>1.01902927558504</v>
       </c>
       <c r="N12">
-        <v>1.014282008013886</v>
+        <v>1.010024292872954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024046257826204</v>
+        <v>0.9880539002578976</v>
       </c>
       <c r="D13">
-        <v>1.030347354534632</v>
+        <v>1.009576143445116</v>
       </c>
       <c r="E13">
-        <v>1.046634520937473</v>
+        <v>0.9980321103511287</v>
       </c>
       <c r="F13">
-        <v>1.051644014694619</v>
+        <v>1.004236609824675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03466090840985</v>
+        <v>1.039002693272088</v>
       </c>
       <c r="J13">
-        <v>1.030762045593306</v>
+        <v>1.01827808335295</v>
       </c>
       <c r="K13">
-        <v>1.033971097688594</v>
+        <v>1.024478725142917</v>
       </c>
       <c r="L13">
-        <v>1.0501975661426</v>
+        <v>1.013152948384036</v>
       </c>
       <c r="M13">
-        <v>1.055188808608463</v>
+        <v>1.019239327938346</v>
       </c>
       <c r="N13">
-        <v>1.014288786421659</v>
+        <v>1.010059239555875</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024174571174724</v>
+        <v>0.988735401774974</v>
       </c>
       <c r="D14">
-        <v>1.030442938230769</v>
+        <v>1.010059817014429</v>
       </c>
       <c r="E14">
-        <v>1.046809279906157</v>
+        <v>0.9988652809130055</v>
       </c>
       <c r="F14">
-        <v>1.051819842035784</v>
+        <v>1.005082264791852</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034688998810562</v>
+        <v>1.039196287465219</v>
       </c>
       <c r="J14">
-        <v>1.030828821458345</v>
+        <v>1.018620763404246</v>
       </c>
       <c r="K14">
-        <v>1.034034509596226</v>
+        <v>1.024811204602631</v>
       </c>
       <c r="L14">
-        <v>1.050340445661487</v>
+        <v>1.013825625147358</v>
       </c>
       <c r="M14">
-        <v>1.055332929601796</v>
+        <v>1.019925813252797</v>
       </c>
       <c r="N14">
-        <v>1.014310994337589</v>
+        <v>1.010173432042191</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024253643010843</v>
+        <v>0.9891539989959444</v>
       </c>
       <c r="D15">
-        <v>1.030501841705185</v>
+        <v>1.010356999598971</v>
       </c>
       <c r="E15">
-        <v>1.046916987728469</v>
+        <v>0.9993771104339247</v>
       </c>
       <c r="F15">
-        <v>1.051928204772895</v>
+        <v>1.005601737796608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034706284329949</v>
+        <v>1.039315011666387</v>
       </c>
       <c r="J15">
-        <v>1.030869960712293</v>
+        <v>1.018831183348266</v>
       </c>
       <c r="K15">
-        <v>1.034073573324247</v>
+        <v>1.025015348420375</v>
       </c>
       <c r="L15">
-        <v>1.050428496525132</v>
+        <v>1.014238790114168</v>
       </c>
       <c r="M15">
-        <v>1.055421742046433</v>
+        <v>1.020347436284043</v>
       </c>
       <c r="N15">
-        <v>1.014324675798518</v>
+        <v>1.01024355155016</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024714083837009</v>
+        <v>0.9915709200055698</v>
       </c>
       <c r="D16">
-        <v>1.030844855113611</v>
+        <v>1.012074322458064</v>
       </c>
       <c r="E16">
-        <v>1.047544397577384</v>
+        <v>1.002333508795005</v>
       </c>
       <c r="F16">
-        <v>1.052559375365495</v>
+        <v>1.008601887236415</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034806558581212</v>
+        <v>1.039997650478672</v>
       </c>
       <c r="J16">
-        <v>1.031109353726482</v>
+        <v>1.020045133645137</v>
       </c>
       <c r="K16">
-        <v>1.034300841851582</v>
+        <v>1.026192892821312</v>
       </c>
       <c r="L16">
-        <v>1.050941265793368</v>
+        <v>1.016624204177536</v>
       </c>
       <c r="M16">
-        <v>1.055938893080693</v>
+        <v>1.022781322908477</v>
       </c>
       <c r="N16">
-        <v>1.014404283549702</v>
+        <v>1.010648090301234</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025003088450811</v>
+        <v>0.9930701685309576</v>
       </c>
       <c r="D17">
-        <v>1.031060166389875</v>
+        <v>1.013140819974927</v>
       </c>
       <c r="E17">
-        <v>1.047938397902904</v>
+        <v>1.004168490833623</v>
       </c>
       <c r="F17">
-        <v>1.052955689582777</v>
+        <v>1.010463668403293</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034869162431792</v>
+        <v>1.040418565972021</v>
       </c>
       <c r="J17">
-        <v>1.031259469071463</v>
+        <v>1.020797279552004</v>
       </c>
       <c r="K17">
-        <v>1.034443313000886</v>
+        <v>1.026922300347214</v>
       </c>
       <c r="L17">
-        <v>1.051263153896624</v>
+        <v>1.018103823948447</v>
       </c>
       <c r="M17">
-        <v>1.056263484773741</v>
+        <v>1.02429068572569</v>
       </c>
       <c r="N17">
-        <v>1.014454197686028</v>
+        <v>1.010898741260389</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025171725060934</v>
+        <v>0.9939387270666354</v>
       </c>
       <c r="D18">
-        <v>1.031185806583639</v>
+        <v>1.013759096964693</v>
       </c>
       <c r="E18">
-        <v>1.048168370777619</v>
+        <v>1.005231966019485</v>
       </c>
       <c r="F18">
-        <v>1.053186995818593</v>
+        <v>1.011542544496665</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034905571479529</v>
+        <v>1.040661492300454</v>
       </c>
       <c r="J18">
-        <v>1.031347010581795</v>
+        <v>1.02123269400453</v>
       </c>
       <c r="K18">
-        <v>1.034526381770617</v>
+        <v>1.027344482983277</v>
       </c>
       <c r="L18">
-        <v>1.051450992461846</v>
+        <v>1.018960995929349</v>
       </c>
       <c r="M18">
-        <v>1.056452884053198</v>
+        <v>1.025164969216246</v>
       </c>
       <c r="N18">
-        <v>1.014483303804867</v>
+        <v>1.011043843327757</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025229236776497</v>
+        <v>0.9942338900764822</v>
       </c>
       <c r="D19">
-        <v>1.031228655538705</v>
+        <v>1.013969277051457</v>
       </c>
       <c r="E19">
-        <v>1.048246812542461</v>
+        <v>1.005593440629033</v>
       </c>
       <c r="F19">
-        <v>1.053265889458638</v>
+        <v>1.011909231475712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034917967902499</v>
+        <v>1.040743888789565</v>
       </c>
       <c r="J19">
-        <v>1.031376856847571</v>
+        <v>1.021380605332095</v>
       </c>
       <c r="K19">
-        <v>1.034554700569244</v>
+        <v>1.027487887485999</v>
       </c>
       <c r="L19">
-        <v>1.051515055228002</v>
+        <v>1.019252288306712</v>
       </c>
       <c r="M19">
-        <v>1.056517476223994</v>
+        <v>1.025462056112718</v>
       </c>
       <c r="N19">
-        <v>1.014493226877953</v>
+        <v>1.011093134995666</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02497207424357</v>
+        <v>0.9929099294689617</v>
       </c>
       <c r="D20">
-        <v>1.031037060056498</v>
+        <v>1.013026788876266</v>
       </c>
       <c r="E20">
-        <v>1.047896108926192</v>
+        <v>1.003972326073628</v>
       </c>
       <c r="F20">
-        <v>1.052913154031925</v>
+        <v>1.010264652239372</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034862456664819</v>
+        <v>1.040373674128383</v>
       </c>
       <c r="J20">
-        <v>1.031243364993069</v>
+        <v>1.020716924115053</v>
       </c>
       <c r="K20">
-        <v>1.034428030521112</v>
+        <v>1.026844381213099</v>
       </c>
       <c r="L20">
-        <v>1.051228609375845</v>
+        <v>1.017945684700949</v>
       </c>
       <c r="M20">
-        <v>1.056228651862765</v>
+        <v>1.024129379892607</v>
       </c>
       <c r="N20">
-        <v>1.014448843191196</v>
+        <v>1.010871962856602</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024136783224643</v>
+        <v>0.9885349878412544</v>
       </c>
       <c r="D21">
-        <v>1.030414788877215</v>
+        <v>1.009917559446412</v>
       </c>
       <c r="E21">
-        <v>1.046757810857508</v>
+        <v>0.9986202495250184</v>
       </c>
       <c r="F21">
-        <v>1.051768059074684</v>
+        <v>1.004833567186461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034680731449536</v>
+        <v>1.03913939477148</v>
       </c>
       <c r="J21">
-        <v>1.030809158370095</v>
+        <v>1.018520002323057</v>
       </c>
       <c r="K21">
-        <v>1.034015837709612</v>
+        <v>1.024713445483912</v>
       </c>
       <c r="L21">
-        <v>1.050298367436644</v>
+        <v>1.013627808935164</v>
       </c>
       <c r="M21">
-        <v>1.05529048648769</v>
+        <v>1.019723941158848</v>
       </c>
       <c r="N21">
-        <v>1.014304454985999</v>
+        <v>1.010139854957956</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023612201403835</v>
+        <v>0.9857279418593703</v>
       </c>
       <c r="D22">
-        <v>1.030024030049979</v>
+        <v>1.007926848259008</v>
       </c>
       <c r="E22">
-        <v>1.046043559903747</v>
+        <v>0.9951895360488576</v>
       </c>
       <c r="F22">
-        <v>1.051049388529436</v>
+        <v>1.001351061785565</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03456551669692</v>
+        <v>1.038339196435116</v>
       </c>
       <c r="J22">
-        <v>1.030535999051859</v>
+        <v>1.017107587095992</v>
       </c>
       <c r="K22">
-        <v>1.033756393521747</v>
+        <v>1.023342891495958</v>
       </c>
       <c r="L22">
-        <v>1.049714275788716</v>
+        <v>1.010856895322622</v>
       </c>
       <c r="M22">
-        <v>1.05470126747242</v>
+        <v>1.016895801307784</v>
       </c>
       <c r="N22">
-        <v>1.014213603552592</v>
+        <v>1.009669199927782</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023890234799997</v>
+        <v>0.9872214987819586</v>
       </c>
       <c r="D23">
-        <v>1.030231131864711</v>
+        <v>1.00898563922419</v>
       </c>
       <c r="E23">
-        <v>1.046422060731963</v>
+        <v>0.9970146483919105</v>
       </c>
       <c r="F23">
-        <v>1.051430246084831</v>
+        <v>1.003203832524728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03462668469989</v>
+        <v>1.038765729588019</v>
       </c>
       <c r="J23">
-        <v>1.030680820416858</v>
+        <v>1.017859355441332</v>
       </c>
       <c r="K23">
-        <v>1.033893956144527</v>
+        <v>1.024072428346764</v>
       </c>
       <c r="L23">
-        <v>1.050023838729352</v>
+        <v>1.01233128982548</v>
       </c>
       <c r="M23">
-        <v>1.055013562291143</v>
+        <v>1.018400740170683</v>
       </c>
       <c r="N23">
-        <v>1.014261772005528</v>
+        <v>1.009919706912432</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024986088027883</v>
+        <v>0.9929823528919162</v>
       </c>
       <c r="D24">
-        <v>1.031047500651141</v>
+        <v>1.013078326326118</v>
       </c>
       <c r="E24">
-        <v>1.047915217002825</v>
+        <v>1.004060985576936</v>
       </c>
       <c r="F24">
-        <v>1.052932373575153</v>
+        <v>1.010354600881512</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034865487042094</v>
+        <v>1.040393966804564</v>
       </c>
       <c r="J24">
-        <v>1.031250641789378</v>
+        <v>1.020753243460339</v>
       </c>
       <c r="K24">
-        <v>1.034434936115669</v>
+        <v>1.026879599602893</v>
       </c>
       <c r="L24">
-        <v>1.051244218290105</v>
+        <v>1.018017159111379</v>
       </c>
       <c r="M24">
-        <v>1.056244391138347</v>
+        <v>1.024202285879128</v>
       </c>
       <c r="N24">
-        <v>1.014451262681552</v>
+        <v>1.010884066254331</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026260312349475</v>
+        <v>0.9994362729960119</v>
       </c>
       <c r="D25">
-        <v>1.031996914691159</v>
+        <v>1.017679604034894</v>
       </c>
       <c r="E25">
-        <v>1.049654180503201</v>
+        <v>1.011971364775881</v>
       </c>
       <c r="F25">
-        <v>1.05468110819317</v>
+        <v>1.018377139895974</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035138415110817</v>
+        <v>1.042182357077337</v>
       </c>
       <c r="J25">
-        <v>1.031911168485585</v>
+        <v>1.023982623708323</v>
       </c>
       <c r="K25">
-        <v>1.035061444153627</v>
+        <v>1.030009529104598</v>
       </c>
       <c r="L25">
-        <v>1.052663797236854</v>
+        <v>1.02438664031225</v>
       </c>
       <c r="M25">
-        <v>1.057675458287376</v>
+        <v>1.030696718684565</v>
       </c>
       <c r="N25">
-        <v>1.014670842628012</v>
+        <v>1.011960264392628</v>
       </c>
     </row>
   </sheetData>
